--- a/sip_client_comparison/sip_client.xlsx
+++ b/sip_client_comparison/sip_client.xlsx
@@ -33,6 +33,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>With troubles
 </t>
@@ -46,6 +47,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>With troubles
 </t>
@@ -69,6 +71,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>On linux, tcp transport is unsupported
 [blink 10148] (2) 2018-08-14 09:59:57.701 tsx0x7f23b0204 .Failed to send Request msg PUBLISH/cseq=1 (tdta0x7f23b0235720)! err=171060 (Unsupported transport (PJSIP_EUNSUPTRANSPORT))
@@ -159,7 +162,8 @@
     <t>Native integration</t>
   </si>
   <si>
-    <t>no advanced settings</t>
+    <t>no advanced settings
+When user toggle receiving of incoming calls or switch from wifi→3 ,or viceversa, UAC send UNREGISTER of all contacts</t>
   </si>
   <si>
     <t>Blink</t>
@@ -238,6 +242,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -311,11 +316,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,7 +362,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="B3:F18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
@@ -369,234 +370,208 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.9081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9132653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.5765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8877551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.1428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0"/>
-    </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -623,225 +598,222 @@
   </sheetPr>
   <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.4336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.9336734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.2704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1581632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.7551020408163"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="67.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="27.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6" t="s">
+    <row r="5" customFormat="false" ht="42.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="40.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="27.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="70.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="27.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -849,7 +821,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/sip_client_comparison/sip_client.xlsx
+++ b/sip_client_comparison/sip_client.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
   <si>
     <t>SIP TCP</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>NO KEEPALIVE</t>
   </si>
   <si>
     <t>not configurable</t>
@@ -370,13 +373,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -599,16 +600,19 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1581632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,43 +710,49 @@
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="40.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="27.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>15</v>
@@ -754,17 +764,17 @@
         <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="27.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -772,19 +782,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -792,13 +802,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
